--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilinca\Desktop\facultate\AN III\Sem2\VVSS\VVSS2024_Linistitii2.0\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A40562-5DD8-4AC2-AD37-24251BD79032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDFF49-C810-4150-BC6A-1B1F97729E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -288,6 +288,19 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours): 1h</t>
+  </si>
+  <si>
+    <t>Error handling lipsa.</t>
+  </si>
+  <si>
+    <t>MenuRepository/L20</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>this.listMenu= new ArrayList();
+Nu se precizeaza tipul elementelor din array.</t>
   </si>
 </sst>
 </file>
@@ -886,7 +899,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E7"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1213,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1354,9 +1367,15 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1514,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1665,14 +1684,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1866,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E32"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
